--- a/src/zh/openpyxl/styles/Style.xlsx
+++ b/src/zh/openpyxl/styles/Style.xlsx
@@ -394,10 +394,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.92578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -420,6 +420,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="1" t="n">
+        <v>-12345</v>
+      </c>
+    </row>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
